--- a/templates/personal_info.xlsx
+++ b/templates/personal_info.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hr-database\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FDF61C6A-C5C4-4570-8B8E-717D54A45407}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE4ACC0-F274-4FC0-B745-88DDCAC5AEFA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{7FA7E487-0FC9-42DD-A7B4-C19D7E329EF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="personal_info-fill" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,8 +174,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F5996-147F-4548-BD2C-CECD84644199}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +647,30 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/personal_info.xlsx
+++ b/templates/personal_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hr-database\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE4ACC0-F274-4FC0-B745-88DDCAC5AEFA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F1C12FEC-7EE3-46B8-AF9C-644E055B9BB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{7FA7E487-0FC9-42DD-A7B4-C19D7E329EF7}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Staff Classification</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Date Of Joining</t>
-  </si>
-  <si>
     <t>Diversity Status</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Date of Joining</t>
+  </si>
+  <si>
+    <t>Date of Retirement</t>
   </si>
 </sst>
 </file>
@@ -493,9 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F5996-147F-4548-BD2C-CECD84644199}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -504,11 +502,12 @@
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
@@ -563,88 +562,88 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
